--- a/Bericht/Zeitplan.xlsx
+++ b/Bericht/Zeitplan.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Nick\Dokumente\GitHub\Tichu-Maturaarbeit\Bericht\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11160" windowHeight="4170"/>
   </bookViews>
@@ -10,8 +15,8 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Woche</t>
   </si>
@@ -27,9 +32,6 @@
     <t>Klassendiagramm</t>
   </si>
   <si>
-    <t>Programmieren</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
@@ -43,13 +45,31 @@
   </si>
   <si>
     <t>Ferien</t>
+  </si>
+  <si>
+    <t>Kommunikation</t>
+  </si>
+  <si>
+    <t>Spiellogik</t>
+  </si>
+  <si>
+    <t>Grafik</t>
+  </si>
+  <si>
+    <t>Programmieren:</t>
+  </si>
+  <si>
+    <t>Abgabe</t>
+  </si>
+  <si>
+    <t>(AndroidApp)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,7 +78,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,6 +109,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -102,13 +140,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -415,27 +459,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:AN15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:AN27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="AC16" sqref="AC16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
-    <col min="2" max="40" width="3.140625" customWidth="1"/>
+    <col min="1" max="1" width="40.86328125" customWidth="1"/>
+    <col min="2" max="40" width="3.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:40">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -557,9 +601,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="14.25" customHeight="1">
+    <row r="5" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -574,9 +618,9 @@
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -587,7 +631,7 @@
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -596,86 +640,183 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T15" s="4"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.45">
+      <c r="A16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>2</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-    </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-    </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="4"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="4"/>
-    </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="4"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="4"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="AG27" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Bericht/Zeitplan.xlsx
+++ b/Bericht/Zeitplan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Nick\Dokumente\GitHub\Tichu-Maturaarbeit\Bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A24A31B5-E346-41E8-B31B-EFC5980D4879}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11160" windowHeight="4170"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11160" windowHeight="4170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Woche</t>
   </si>
@@ -60,15 +61,12 @@
   </si>
   <si>
     <t>Abgabe</t>
-  </si>
-  <si>
-    <t>(AndroidApp)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,7 +76,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,7 +121,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -140,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -153,6 +157,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -213,7 +218,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -265,7 +270,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -466,11 +471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AN27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:AN26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC16" sqref="AC16"/>
+      <selection activeCell="AN20" sqref="AN20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -668,6 +673,10 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A13" s="7" t="s">
@@ -692,6 +701,7 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A14" s="7" t="s">
@@ -710,12 +720,16 @@
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A15" s="7" t="s">
@@ -726,97 +740,92 @@
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="4"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="9"/>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
+        <v>5</v>
+      </c>
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
-      <c r="AF24" s="4"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="4"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+      <c r="AF24" s="9"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="AG27" s="8"/>
+      <c r="AG26" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Bericht/Zeitplan.xlsx
+++ b/Bericht/Zeitplan.xlsx
@@ -5,15 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Nick\Dokumente\GitHub\Tichu-Maturaarbeit\Bericht\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\GitHub\Tichu-Maturaarbeit\Bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A24A31B5-E346-41E8-B31B-EFC5980D4879}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{10932BB1-A8C6-4B36-AF07-AE829E5343D0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11160" windowHeight="4170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelle4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
     <t>Woche</t>
   </si>
@@ -62,12 +64,21 @@
   <si>
     <t>Abgabe</t>
   </si>
+  <si>
+    <t>Geplant</t>
+  </si>
+  <si>
+    <t>EF- und Maturareise</t>
+  </si>
+  <si>
+    <t>Zusätzlich gebraucht</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,8 +86,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -131,8 +157,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -140,11 +172,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -158,6 +231,42 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -472,360 +581,2382 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:AN26"/>
+  <dimension ref="B3:AH34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN20" sqref="AN20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:AH34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.86328125" customWidth="1"/>
-    <col min="2" max="40" width="3.1328125" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="3" max="41" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="C3" s="22">
         <v>12</v>
       </c>
-      <c r="C3">
+      <c r="D3" s="22">
         <v>13</v>
       </c>
-      <c r="D3">
+      <c r="E3" s="22">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="F3" s="22">
         <v>15</v>
       </c>
-      <c r="F3">
+      <c r="G3" s="22">
         <v>16</v>
       </c>
-      <c r="G3">
+      <c r="H3" s="22">
         <v>17</v>
       </c>
-      <c r="H3">
+      <c r="I3" s="22">
         <v>18</v>
       </c>
-      <c r="I3">
+      <c r="J3" s="22">
         <v>19</v>
       </c>
-      <c r="J3">
+      <c r="K3" s="22">
         <v>20</v>
       </c>
-      <c r="K3">
+      <c r="L3" s="22">
         <v>21</v>
       </c>
-      <c r="L3">
+      <c r="M3" s="22">
         <v>22</v>
       </c>
-      <c r="M3">
+      <c r="N3" s="22">
         <v>23</v>
       </c>
-      <c r="N3">
+      <c r="O3" s="22">
         <v>24</v>
       </c>
-      <c r="O3">
+      <c r="P3" s="22">
         <v>25</v>
       </c>
-      <c r="P3">
+      <c r="Q3" s="22">
         <v>26</v>
       </c>
-      <c r="Q3">
+      <c r="R3" s="22">
         <v>27</v>
       </c>
-      <c r="R3">
+      <c r="S3" s="22">
         <v>28</v>
       </c>
-      <c r="S3">
+      <c r="T3" s="22">
         <v>29</v>
       </c>
-      <c r="T3">
+      <c r="U3" s="22">
         <v>30</v>
       </c>
-      <c r="U3">
+      <c r="V3" s="22">
         <v>31</v>
       </c>
-      <c r="V3">
+      <c r="W3" s="22">
         <v>32</v>
       </c>
-      <c r="W3">
+      <c r="X3" s="22">
         <v>33</v>
       </c>
-      <c r="X3">
+      <c r="Y3" s="22">
         <v>34</v>
       </c>
-      <c r="Y3">
+      <c r="Z3" s="22">
         <v>35</v>
       </c>
-      <c r="Z3">
+      <c r="AA3" s="22">
         <v>36</v>
       </c>
-      <c r="AA3">
+      <c r="AB3" s="22">
         <v>37</v>
       </c>
-      <c r="AB3">
+      <c r="AC3" s="22">
         <v>38</v>
       </c>
-      <c r="AC3">
+      <c r="AD3" s="22">
         <v>39</v>
       </c>
-      <c r="AD3">
+      <c r="AE3" s="22">
         <v>40</v>
       </c>
-      <c r="AE3">
+      <c r="AF3" s="22">
         <v>41</v>
       </c>
-      <c r="AF3">
+      <c r="AG3" s="22">
         <v>42</v>
       </c>
-      <c r="AG3">
+      <c r="AH3" s="22">
         <v>43</v>
       </c>
-      <c r="AH3">
-        <v>44</v>
-      </c>
-      <c r="AI3">
-        <v>45</v>
-      </c>
-      <c r="AJ3">
-        <v>46</v>
-      </c>
-      <c r="AK3">
-        <v>47</v>
-      </c>
-      <c r="AL3">
-        <v>48</v>
-      </c>
-      <c r="AM3">
-        <v>49</v>
-      </c>
-      <c r="AN3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B4" s="22"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+    </row>
+    <row r="5" spans="2:34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="AB5" s="5"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B6" s="22"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B8" s="22"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+    </row>
+    <row r="10" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="22"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
+      <c r="AA10" s="17"/>
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="17"/>
+      <c r="AD10" s="17"/>
+      <c r="AE10" s="17"/>
+      <c r="AF10" s="17"/>
+      <c r="AG10" s="17"/>
+      <c r="AH10" s="17"/>
+    </row>
+    <row r="11" spans="2:34" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="17"/>
+      <c r="AA11" s="17"/>
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="17"/>
+      <c r="AD11" s="17"/>
+      <c r="AE11" s="17"/>
+      <c r="AF11" s="17"/>
+      <c r="AG11" s="17"/>
+      <c r="AH11" s="17"/>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="17"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="18"/>
+      <c r="AG12" s="12"/>
+      <c r="AH12" s="12"/>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B13" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17"/>
+      <c r="AA13" s="17"/>
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="17"/>
+      <c r="AD13" s="12"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
+      <c r="AH13" s="12"/>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B14" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="17"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="12"/>
+      <c r="AH14" s="12"/>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B15" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="12"/>
+      <c r="AF15" s="12"/>
+      <c r="AG15" s="12"/>
+      <c r="AH15" s="12"/>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B16" s="22"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="12"/>
+      <c r="AE16" s="12"/>
+      <c r="AF16" s="12"/>
+      <c r="AG16" s="12"/>
+      <c r="AH16" s="12"/>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B17" s="22"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="12"/>
+      <c r="AE17" s="12"/>
+      <c r="AF17" s="12"/>
+      <c r="AG17" s="12"/>
+      <c r="AH17" s="12"/>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B18" s="22"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B19" s="22"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="17"/>
+      <c r="AA19" s="17"/>
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="12"/>
+      <c r="AF19" s="12"/>
+      <c r="AG19" s="12"/>
+      <c r="AH19" s="12"/>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B20" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="16"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="12"/>
+      <c r="AH20" s="12"/>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B21" s="22"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="12"/>
+      <c r="AF21" s="12"/>
+      <c r="AG21" s="12"/>
+      <c r="AH21" s="12"/>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B22" s="22"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="12"/>
+      <c r="AE22" s="12"/>
+      <c r="AF22" s="12"/>
+      <c r="AG22" s="12"/>
+      <c r="AH22" s="12"/>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B23" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="18"/>
+      <c r="AH23" s="12"/>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B24" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="17"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
+      <c r="AG24" s="18"/>
+      <c r="AH24" s="12"/>
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B25" s="22"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="12"/>
+      <c r="AE25" s="12"/>
+      <c r="AF25" s="12"/>
+      <c r="AG25" s="12"/>
+      <c r="AH25" s="12"/>
+    </row>
+    <row r="26" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B26" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="12"/>
+      <c r="AE26" s="12"/>
+      <c r="AF26" s="12"/>
+      <c r="AG26" s="12"/>
+      <c r="AH26" s="21"/>
+    </row>
+    <row r="27" spans="2:34" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:34" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="16"/>
+      <c r="D28" s="19"/>
+      <c r="F28" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:34" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="36"/>
+    </row>
+    <row r="30" spans="2:34" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="18"/>
+      <c r="D30" s="20"/>
+      <c r="F30" s="35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="2:34" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="36"/>
+    </row>
+    <row r="32" spans="2:34" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="37"/>
+      <c r="D32" s="38"/>
+      <c r="F32" s="35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="36"/>
+    </row>
+    <row r="34" spans="3:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="39"/>
+      <c r="D34" s="40"/>
+      <c r="F34" s="35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7031C7-088F-44F0-AC85-A8FEF9243290}">
+  <dimension ref="A1:X35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" t="s">
+        <v>4</v>
+      </c>
+      <c r="V1" t="s">
+        <v>5</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>17</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.45"/>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="Q9" s="4"/>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>20</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>21</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+    </row>
+    <row r="12" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>22</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A13" s="7" t="s">
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+    </row>
+    <row r="13" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>23</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>24</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>25</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>26</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>27</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="6"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="1"/>
+      <c r="U18" s="4"/>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="6"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="1"/>
+      <c r="U19" s="4"/>
+    </row>
+    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>30</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="1"/>
+      <c r="U20" s="4"/>
+    </row>
+    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>31</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="1"/>
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>32</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="6"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="1"/>
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>33</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="6"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="1"/>
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>34</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="10"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="1"/>
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>35</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="10"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="1"/>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>36</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="10"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+    </row>
+    <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>37</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="10"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+    </row>
+    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>38</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+    </row>
+    <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>39</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="9"/>
+      <c r="L29" s="10"/>
+      <c r="R29" s="9"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+    </row>
+    <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>40</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="9"/>
+      <c r="L30" s="10"/>
+      <c r="R30" s="9"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+    </row>
+    <row r="31" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>41</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="9"/>
+      <c r="L31" s="10"/>
+      <c r="R31" s="9"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+    </row>
+    <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>42</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+    </row>
+    <row r="33" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>43</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="X33" s="8"/>
+    </row>
+    <row r="34" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>44</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA7E434-85F1-4A7A-B09E-9CCD4CCCB773}">
+  <dimension ref="B2:AH25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AK8" sqref="AK8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="40.85546875" customWidth="1"/>
+    <col min="3" max="34" width="3.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="34">
+        <v>12</v>
+      </c>
+      <c r="D2" s="34">
+        <v>13</v>
+      </c>
+      <c r="E2" s="34">
+        <v>14</v>
+      </c>
+      <c r="F2" s="34">
+        <v>15</v>
+      </c>
+      <c r="G2" s="34">
+        <v>16</v>
+      </c>
+      <c r="H2" s="34">
+        <v>17</v>
+      </c>
+      <c r="I2" s="34">
+        <v>18</v>
+      </c>
+      <c r="J2" s="34">
+        <v>19</v>
+      </c>
+      <c r="K2" s="34">
+        <v>20</v>
+      </c>
+      <c r="L2" s="34">
+        <v>21</v>
+      </c>
+      <c r="M2" s="34">
+        <v>22</v>
+      </c>
+      <c r="N2" s="34">
+        <v>23</v>
+      </c>
+      <c r="O2" s="34">
+        <v>24</v>
+      </c>
+      <c r="P2" s="34">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="34">
+        <v>26</v>
+      </c>
+      <c r="R2" s="34">
+        <v>27</v>
+      </c>
+      <c r="S2" s="34">
+        <v>28</v>
+      </c>
+      <c r="T2" s="34">
+        <v>29</v>
+      </c>
+      <c r="U2" s="34">
+        <v>30</v>
+      </c>
+      <c r="V2" s="34">
+        <v>31</v>
+      </c>
+      <c r="W2" s="34">
+        <v>32</v>
+      </c>
+      <c r="X2" s="34">
+        <v>33</v>
+      </c>
+      <c r="Y2" s="34">
+        <v>34</v>
+      </c>
+      <c r="Z2" s="34">
+        <v>35</v>
+      </c>
+      <c r="AA2" s="34">
+        <v>36</v>
+      </c>
+      <c r="AB2" s="34">
+        <v>37</v>
+      </c>
+      <c r="AC2" s="34">
+        <v>38</v>
+      </c>
+      <c r="AD2" s="34">
+        <v>39</v>
+      </c>
+      <c r="AE2" s="34">
+        <v>40</v>
+      </c>
+      <c r="AF2" s="34">
+        <v>41</v>
+      </c>
+      <c r="AG2" s="34">
+        <v>42</v>
+      </c>
+      <c r="AH2" s="34">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B3" s="23"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="25"/>
+      <c r="AE4" s="25"/>
+      <c r="AF4" s="25"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+      <c r="AA5" s="24"/>
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="24"/>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="24"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="24"/>
+      <c r="AE6" s="24"/>
+      <c r="AF6" s="24"/>
+      <c r="AG6" s="24"/>
+      <c r="AH6" s="24"/>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="24"/>
+      <c r="AC7" s="24"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="24"/>
+      <c r="AF7" s="24"/>
+      <c r="AG7" s="24"/>
+      <c r="AH7" s="24"/>
+    </row>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="24"/>
+      <c r="AE8" s="24"/>
+      <c r="AF8" s="24"/>
+      <c r="AG8" s="24"/>
+      <c r="AH8" s="24"/>
+    </row>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="23"/>
+      <c r="AA9" s="23"/>
+      <c r="AB9" s="23"/>
+      <c r="AC9" s="23"/>
+      <c r="AD9" s="23"/>
+      <c r="AE9" s="23"/>
+      <c r="AF9" s="23"/>
+      <c r="AG9" s="23"/>
+      <c r="AH9" s="23"/>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="23"/>
+    </row>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="28"/>
+      <c r="X11" s="28"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="28"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="28"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="24"/>
+      <c r="AH11" s="24"/>
+    </row>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B12" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A14" s="7" t="s">
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="24"/>
+      <c r="AE12" s="24"/>
+      <c r="AF12" s="24"/>
+      <c r="AG12" s="24"/>
+      <c r="AH12" s="24"/>
+    </row>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B13" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="10"/>
-      <c r="AD14" s="10"/>
-      <c r="AE14" s="10"/>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="A15" s="7" t="s">
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
+      <c r="AA13" s="32"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="32"/>
+      <c r="AE13" s="32"/>
+      <c r="AF13" s="32"/>
+      <c r="AG13" s="24"/>
+      <c r="AH13" s="24"/>
+    </row>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B14" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="T15" s="4"/>
-      <c r="U15" s="6"/>
-      <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="24"/>
+      <c r="AC14" s="24"/>
+      <c r="AD14" s="24"/>
+      <c r="AE14" s="24"/>
+      <c r="AF14" s="24"/>
+      <c r="AG14" s="24"/>
+      <c r="AH14" s="24"/>
+    </row>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="24"/>
+      <c r="AG15" s="24"/>
+      <c r="AH15" s="24"/>
+    </row>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="24"/>
+      <c r="Y16" s="24"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="24"/>
+      <c r="AC16" s="24"/>
+      <c r="AD16" s="24"/>
+      <c r="AE16" s="24"/>
+      <c r="AF16" s="24"/>
+      <c r="AG16" s="24"/>
+      <c r="AH16" s="24"/>
+    </row>
+    <row r="17" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="24"/>
+      <c r="Y17" s="24"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="24"/>
+      <c r="AC17" s="24"/>
+      <c r="AD17" s="24"/>
+      <c r="AE17" s="24"/>
+      <c r="AF17" s="24"/>
+      <c r="AG17" s="24"/>
+      <c r="AH17" s="24"/>
+    </row>
+    <row r="18" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="23"/>
+      <c r="AB18" s="23"/>
+      <c r="AC18" s="24"/>
+      <c r="AD18" s="24"/>
+      <c r="AE18" s="24"/>
+      <c r="AF18" s="24"/>
+      <c r="AG18" s="24"/>
+      <c r="AH18" s="24"/>
+    </row>
+    <row r="19" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B19" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="28"/>
+      <c r="R19" s="28"/>
+      <c r="S19" s="28"/>
+      <c r="T19" s="28"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="28"/>
+      <c r="W19" s="28"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="28"/>
+      <c r="AA19" s="28"/>
+      <c r="AB19" s="28"/>
+      <c r="AC19" s="23"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="24"/>
+      <c r="AH19" s="24"/>
+    </row>
+    <row r="20" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="24"/>
+      <c r="AE20" s="24"/>
+      <c r="AF20" s="24"/>
+      <c r="AG20" s="24"/>
+      <c r="AH20" s="24"/>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="24"/>
+      <c r="Y21" s="24"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="24"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="24"/>
+      <c r="AE21" s="24"/>
+      <c r="AF21" s="24"/>
+      <c r="AG21" s="24"/>
+      <c r="AH21" s="24"/>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B22" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="9"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="28"/>
+      <c r="W22" s="28"/>
+      <c r="X22" s="28"/>
+      <c r="Y22" s="28"/>
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="28"/>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="28"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="24"/>
+    </row>
+    <row r="23" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B23" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="1"/>
-      <c r="AF24" s="9"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="24"/>
+      <c r="Y23" s="24"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="24"/>
+    </row>
+    <row r="24" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B24" s="23"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="24"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="24"/>
+      <c r="X24" s="24"/>
+      <c r="Y24" s="24"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="24"/>
+      <c r="AB24" s="24"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="24"/>
+      <c r="AE24" s="24"/>
+      <c r="AF24" s="24"/>
+      <c r="AG24" s="24"/>
+      <c r="AH24" s="24"/>
+    </row>
+    <row r="25" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B25" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AG26" s="8"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="24"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="24"/>
+      <c r="Z25" s="24"/>
+      <c r="AA25" s="24"/>
+      <c r="AB25" s="24"/>
+      <c r="AC25" s="24"/>
+      <c r="AD25" s="24"/>
+      <c r="AE25" s="24"/>
+      <c r="AF25" s="24"/>
+      <c r="AG25" s="24"/>
+      <c r="AH25" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
